--- a/src/main/resources/leetcode.xlsx
+++ b/src/main/resources/leetcode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,268 @@
         <scheme val="minor"/>
       </rPr>
       <t>的使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">06. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从尾到头打印链表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">07. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重建二叉树</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">09. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用两个栈实现队列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斐波那切数列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意递归超时，使用动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>青蛙跳台阶问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐波那契数列变形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旋转数组的最小数字</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意如果尝试不成功回退到上一个路径，需要恢复路径矩阵！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>矩阵中的路径</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>二叉树递归重点题目，反复理解！</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案写出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机器人的运动范围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剪绳子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>动态规划，本体思路建议背过！</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案写出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +477,47 @@
       <name val="微软雅黑 Light"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,6 +567,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,20 +861,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="70.25" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -640,6 +955,174 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="17.25">
+      <c r="A6" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A7" s="9">
+        <v>44393</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25">
+      <c r="A8" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25">
+      <c r="A9" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25">
+      <c r="A10" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25">
+      <c r="A11" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A12" s="9">
+        <v>44393</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25">
+      <c r="A13" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A14" s="9">
+        <v>44393</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/leetcode.xlsx
+++ b/src/main/resources/leetcode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意如果尝试不成功回退到上一个路径，需要恢复路径矩阵！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">12. </t>
     </r>
@@ -406,6 +402,526 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剪绳子Ⅱ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二进制中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的个数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大数取余</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>循环求余</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案写出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，与上一题配合学习</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快速幂解析 + 位运算</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案写出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数值的整数次方</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打印从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到最大的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除链表的节点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归+剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归+剪枝，注意如果尝试不成功回退到上一个路径，需要恢复路径矩阵！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调整数组顺序是奇数位于偶数前面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>链表中倒数第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> k </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个节点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快慢指针</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案写出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反转链表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>递归/双指针</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案写出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合并两个排序的链表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树的子结构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归(注意条件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉树的镜像</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -861,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -971,6 +1487,9 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" ht="17.25">
       <c r="A7" s="9">
@@ -989,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25">
@@ -1008,6 +1527,9 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="17.25">
       <c r="A9" s="1">
@@ -1071,7 +1593,7 @@
         <v>44393</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>0</v>
@@ -1083,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25">
@@ -1091,7 +1613,7 @@
         <v>44393</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>0</v>
@@ -1101,6 +1623,9 @@
       </c>
       <c r="E13" s="2">
         <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="8" customFormat="1" ht="17.25">
@@ -1108,7 +1633,7 @@
         <v>44393</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>0</v>
@@ -1120,11 +1645,226 @@
         <v>1</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A15" s="9">
+        <v>44396</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25">
+      <c r="A16" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A17" s="9">
+        <v>44396</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25">
+      <c r="A18" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25">
+      <c r="A19" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25">
+      <c r="A20" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A21" s="9">
+        <v>44396</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A22" s="9">
+        <v>44396</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25">
+      <c r="A23" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A24" s="9">
+        <v>44396</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25">
+      <c r="A25" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/leetcode.xlsx
+++ b/src/main/resources/leetcode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="93">
   <si>
     <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,918 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">13. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机器人的运动范围</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剪绳子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剪绳子Ⅱ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二进制中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的个数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数值的整数次方</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">17. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打印从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到最大的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除链表的节点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归+剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归+剪枝，注意如果尝试不成功回退到上一个路径，需要恢复路径矩阵！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调整数组顺序是奇数位于偶数前面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>链表中倒数第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> k </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个节点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反转链表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合并两个排序的链表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树的子结构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归(注意条件)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉树的镜像</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对称的二叉树</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">29. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺时针打印矩阵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包含</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>函数的栈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助栈存储最小值，注意有关栈的API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">31. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>栈的压入、弹出序列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建栈，模拟出入栈的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">32-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从上到下打印二叉树</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助队列，注意队列相关的API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">32-2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从上到下打印二叉树Ⅱ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助队列 + 维护行数 + LinkedList的队首队尾添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助队列 + 维护队列长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">32-3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从上到下打印二叉树Ⅲ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据二叉搜索树和后序遍历序列的特点，划分左右子树递归判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">33. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉搜索树的后序遍历序列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">34. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉树中和为某一值的路径</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快慢指针</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>递归</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>双指针</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>划分边界依次打印</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快速幂解析</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位运算</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大数取余</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>循环求余</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，与上一题配合学习</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>动态规划，本体思路建议背过！</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看答案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>二叉树递归重点题目，反复理解！</t>
     </r>
     <r>
@@ -314,7 +1226,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>看答案写出</t>
+      <t>看答案</t>
     </r>
     <r>
       <rPr>
@@ -330,26 +1242,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">13. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>机器人的运动范围</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14-1. </t>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助HashMap，键为旧节点，值为新节点，两次遍历实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中序遍历 + dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. </t>
     </r>
     <r>
       <rPr>
@@ -361,13 +1267,53 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>剪绳子</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>动态规划，本体思路建议背过！</t>
+      <t>复杂链表的复制</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">36. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二叉搜索树与双向链表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">38. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串的排列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>递归回溯 + 剪枝，此题背过</t>
     </r>
     <r>
       <rPr>
@@ -390,7 +1336,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>看答案写出</t>
+      <t>看答案</t>
     </r>
     <r>
       <rPr>
@@ -407,59 +1353,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">14-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>剪绳子Ⅱ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">15. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二进制中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的个数</t>
+      <t xml:space="preserve">39. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数组中出现次数超过一半的数字</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,25 +1374,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>位运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>大数取余</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+    <t>摩尔投票法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最小的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快速排序，背！</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -495,58 +1436,21 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>循环求余</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>看答案写出</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，与上一题配合学习</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+      <t>看答案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -555,374 +1459,50 @@
   </si>
   <si>
     <r>
-      <t>快速幂解析 + 位运算</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>看答案写出</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数值的整数次方</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">17. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>打印从</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>到最大的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>位数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除链表的节点</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归+剪枝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归+剪枝，注意如果尝试不成功回退到上一个路径，需要恢复路径矩阵！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>调整数组顺序是奇数位于偶数前面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>链表中倒数第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> k </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>个节点</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>快慢指针</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>看答案写出</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">24. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反转链表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>递归/双指针</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>看答案写出</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">25. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>合并两个排序的链表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">26. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>树的子结构</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归(注意条件)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">27. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>二叉树的镜像</t>
-    </r>
+      <t xml:space="preserve">42. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连续子数组的最大和</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">44. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数字序列中某一位的数字</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学规律推导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1488,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" ht="17.25">
@@ -1508,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25">
@@ -1528,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25">
@@ -1605,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25">
@@ -1613,7 +2193,7 @@
         <v>44393</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>0</v>
@@ -1625,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="8" customFormat="1" ht="17.25">
@@ -1633,7 +2213,7 @@
         <v>44393</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>0</v>
@@ -1645,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" ht="17.25">
@@ -1653,7 +2233,7 @@
         <v>44396</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>0</v>
@@ -1665,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25">
@@ -1673,19 +2253,19 @@
         <v>44396</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="17.25">
@@ -1693,19 +2273,19 @@
         <v>44396</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8">
         <v>3</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25">
@@ -1713,13 +2293,13 @@
         <v>44396</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1730,13 +2310,13 @@
         <v>44396</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1747,19 +2327,19 @@
         <v>44396</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="17.25">
@@ -1767,19 +2347,19 @@
         <v>44396</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="8" customFormat="1" ht="17.25">
@@ -1787,19 +2367,19 @@
         <v>44396</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="8">
         <v>2</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25">
@@ -1807,19 +2387,19 @@
         <v>44396</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="8" customFormat="1" ht="17.25">
@@ -1827,19 +2407,19 @@
         <v>44396</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25">
@@ -1847,19 +2427,336 @@
         <v>44396</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25">
+      <c r="A26" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A27" s="9">
+        <v>44398</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25">
+      <c r="A28" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25">
+      <c r="A29" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25">
+      <c r="A30" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25">
+      <c r="A31" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A32" s="9">
+        <v>44400</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="8">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A33" s="9">
+        <v>44400</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A34" s="9">
+        <v>44400</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="8">
+        <v>3</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A35" s="9">
+        <v>44403</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A36" s="9">
+        <v>44403</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="8" customFormat="1" ht="17.25">
+      <c r="A37" s="9">
+        <v>44404</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.25">
+      <c r="A38" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25">
+      <c r="A39" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.25">
+      <c r="A40" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25">
+      <c r="A41" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
